--- a/testData/testdata.xlsx
+++ b/testData/testdata.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Babihost\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4D19EB-3AAF-48B1-8D36-3A3C00FEAA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16BF58E-3399-4F4E-9736-D6182439EAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>password</t>
   </si>
@@ -28,18 +29,6 @@
     <t>admin@babihost.online</t>
   </si>
   <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>teset</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
     <t>user</t>
   </si>
   <si>
@@ -47,6 +36,12 @@
   </si>
   <si>
     <t>username</t>
+  </si>
+  <si>
+    <t>testing1</t>
+  </si>
+  <si>
+    <t>test123</t>
   </si>
 </sst>
 </file>
@@ -399,9 +394,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -411,7 +408,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -426,32 +423,77 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{82DA8E72-8BE3-4AD9-8C9C-8AACF4AD5087}"/>
+    <hyperlink ref="A3" r:id="rId2" display="admin@babihost.online" xr:uid="{9C792DDB-7C24-4D08-A1B9-D7EB7B2ACF11}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{A7F59EB5-AE8D-411E-B5DD-63720AF8489A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672E5402-E43F-4C39-A125-C88389015D46}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>12345678</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4861D82B-B4AD-4441-BD4D-CDE27579D084}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testData/testdata.xlsx
+++ b/testData/testdata.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Babihost\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16BF58E-3399-4F4E-9736-D6182439EAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D881E553-E510-436B-8033-1B3B4B3E14E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>password</t>
   </si>
@@ -42,6 +43,24 @@
   </si>
   <si>
     <t>test123</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>confirm_password</t>
+  </si>
+  <si>
+    <t>rida</t>
+  </si>
+  <si>
+    <t>rkataya35@gmail.com</t>
+  </si>
+  <si>
+    <t>rida@35.com</t>
   </si>
 </sst>
 </file>
@@ -465,7 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672E5402-E43F-4C39-A125-C88389015D46}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -497,4 +516,59 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FA81E6-C90C-487D-9933-D741E316E494}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="5" max="5" width="7.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D48B714F-2929-4F3D-9359-9F5236BCE383}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{FAFC3AEC-0F04-460D-B82E-CEFDF3785DBF}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{A527DA6D-DC89-417E-9B0D-6531603040E5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>